--- a/Python/02 On Computer/05 Dynamic Xi der/real inputvec.xlsx
+++ b/Python/02 On Computer/05 Dynamic Xi der/real inputvec.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,6 +83,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1730,6 +1751,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3373,6 +3419,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5016,6 +5087,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6659,6 +6755,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -8302,6 +8423,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -13270,16 +13416,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>96371</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>172571</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>437028</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13300,16 +13446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6724</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>448234</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>82924</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13330,16 +13476,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:rowOff>29135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>437028</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>183776</xdr:rowOff>
+      <xdr:rowOff>105335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13360,16 +13506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>186018</xdr:rowOff>
+      <xdr:rowOff>96371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>280146</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>172571</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13390,16 +13536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>73959</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>150159</xdr:rowOff>
+      <xdr:rowOff>60512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13420,16 +13566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>129989</xdr:rowOff>
+      <xdr:rowOff>73960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>15689</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>425822</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>150160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13716,8 +13862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z76" sqref="Z76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
